--- a/DDAf_2022_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -196,7 +196,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -238,13 +238,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -262,7 +262,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -331,7 +331,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -343,7 +343,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -445,7 +445,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -463,7 +463,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -481,7 +481,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="199">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="198">
   <si>
     <t>Tableau 3 : Taux de croissance annuel de la population, 1990-2026</t>
   </si>
@@ -1381,11 +1378,9 @@
   <sheetData>
     <row r="1" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1427,132 +1422,132 @@
     </row>
     <row r="2" spans="1:40" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="AE2" s="8">
         <v>2018</v>
       </c>
       <c r="AF2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="AM2" s="8">
         <v>2026</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="12">
         <v>3.4361276476274001</v>
@@ -1671,10 +1666,10 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="C4" s="15">
         <v>3.3967491747583902</v>
@@ -1793,10 +1788,10 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C5" s="19">
         <v>2.9962504602391</v>
@@ -1915,10 +1910,10 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="C6" s="19">
         <v>2.2317174737963801</v>
@@ -2037,10 +2032,10 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="C7" s="19">
         <v>3.6243571752203398</v>
@@ -2159,10 +2154,10 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="C8" s="19">
         <v>1.41607612086567</v>
@@ -2281,10 +2276,10 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="C9" s="19">
         <v>3.3829457341969098</v>
@@ -2403,10 +2398,10 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="C10" s="19">
         <v>2.4226263382389299</v>
@@ -2525,10 +2520,10 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C11" s="15">
         <v>2.77038985836551</v>
@@ -2647,10 +2642,10 @@
     </row>
     <row r="12" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="C12" s="22">
         <v>2.74336281442746</v>
@@ -2769,10 +2764,10 @@
     </row>
     <row r="13" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="C13" s="26">
         <v>2.6206581301158498</v>
@@ -2891,10 +2886,10 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="C14" s="19">
         <v>2.4851759040630301</v>
@@ -3013,10 +3008,10 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C15" s="19">
         <v>3.1006912684591801</v>
@@ -3135,10 +3130,10 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C16" s="19">
         <v>2.2218094608547299</v>
@@ -3257,10 +3252,10 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>69</v>
       </c>
       <c r="C17" s="12">
         <v>3.27887591293972</v>
@@ -3379,10 +3374,10 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>71</v>
       </c>
       <c r="C18" s="12">
         <v>2.7725484604002899</v>
@@ -3501,10 +3496,10 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C19" s="15">
         <v>3.4282503744908799</v>
@@ -3623,10 +3618,10 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>74</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>75</v>
       </c>
       <c r="C20" s="12">
         <v>3.0908464905808901</v>
@@ -3745,10 +3740,10 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>77</v>
       </c>
       <c r="C21" s="12">
         <v>2.79079888363714</v>
@@ -3867,10 +3862,10 @@
     </row>
     <row r="22" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C22" s="19">
         <v>2.4915529648448498</v>
@@ -3989,10 +3984,10 @@
     </row>
     <row r="23" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="26">
         <v>3.1839030159509698</v>
@@ -4111,10 +4106,10 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="C24" s="19">
         <v>2.9927084011030201</v>
@@ -4233,10 +4228,10 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="C25" s="19">
         <v>4.7065291608658297</v>
@@ -4355,10 +4350,10 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C26" s="19">
         <v>1.2327756523111</v>
@@ -4477,10 +4472,10 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="C27" s="19">
         <v>3.4914100243281601</v>
@@ -4599,10 +4594,10 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="C28" s="19">
         <v>3.4422627896609801</v>
@@ -4721,10 +4716,10 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="C29" s="19">
         <v>2.9284245419572299</v>
@@ -4843,10 +4838,10 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="C30" s="19">
         <v>0.98356422481193995</v>
@@ -4965,10 +4960,10 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="C31" s="19">
         <v>0.16352930878085001</v>
@@ -5087,10 +5082,10 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="C32" s="19">
         <v>0.68912382827548002</v>
@@ -5209,10 +5204,10 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="C33" s="19">
         <v>1.2872930663008</v>
@@ -5331,10 +5326,10 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="C34" s="15">
         <v>-0.34403915246110001</v>
@@ -5453,10 +5448,10 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="C35" s="19">
         <v>3.4448372623366201</v>
@@ -5575,10 +5570,10 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="C36" s="19">
         <v>3.2447661256811702</v>
@@ -5697,10 +5692,10 @@
     </row>
     <row r="37" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="C37" s="19">
         <v>3.5277250708865902</v>
@@ -5819,10 +5814,10 @@
     </row>
     <row r="38" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="26">
         <v>2.9940603518297602</v>
@@ -5941,10 +5936,10 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>111</v>
       </c>
       <c r="C39" s="12">
         <v>2.5996774022918299</v>
@@ -6063,10 +6058,10 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C40" s="19">
         <v>2.4563431716186699</v>
@@ -6185,10 +6180,10 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>114</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>115</v>
       </c>
       <c r="C41" s="12">
         <v>2.4885566542348001</v>
@@ -6307,10 +6302,10 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="C42" s="12">
         <v>2.6461954223771</v>
@@ -6429,10 +6424,10 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="C43" s="19">
         <v>1.8551649508138199</v>
@@ -6551,10 +6546,10 @@
     </row>
     <row r="44" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C44" s="19">
         <v>2.2617025782575699</v>
@@ -6673,10 +6668,10 @@
     </row>
     <row r="45" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="26">
         <v>2.3543665895969101</v>
@@ -6795,10 +6790,10 @@
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="C46" s="19">
         <v>3.2877249471993801</v>
@@ -6917,10 +6912,10 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="C47" s="19">
         <v>2.6948706837371299</v>
@@ -7039,10 +7034,10 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="C48" s="19">
         <v>2.0451114197717102</v>
@@ -7161,10 +7156,10 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="C49" s="19">
         <v>3.6724340451553998</v>
@@ -7283,10 +7278,10 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="C50" s="19">
         <v>4.3646403409233701</v>
@@ -7405,10 +7400,10 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="C51" s="15">
         <v>2.9251935898990902</v>
@@ -7527,10 +7522,10 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="C52" s="19">
         <v>2.9963939891171298</v>
@@ -7649,10 +7644,10 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="C53" s="19">
         <v>2.2524014921648798</v>
@@ -7771,10 +7766,10 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="C54" s="19">
         <v>-1.4485178470293001</v>
@@ -7893,10 +7888,10 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="C55" s="19">
         <v>1.84400980653181</v>
@@ -8015,10 +8010,10 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="C56" s="19">
         <v>3.1663539514580599</v>
@@ -8137,10 +8132,10 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>146</v>
       </c>
       <c r="C57" s="12">
         <v>2.6128529346330902</v>
@@ -8259,10 +8254,10 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>148</v>
       </c>
       <c r="C58" s="19">
         <v>3.0505191270335601</v>
@@ -8381,10 +8376,10 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="C59" s="19">
         <v>1.5355509099447699</v>
@@ -8503,10 +8498,10 @@
     </row>
     <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="C60" s="15">
         <v>2.6027254634753101</v>
@@ -8626,7 +8621,7 @@
     <row r="61" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="26">
         <v>2.68196264582348</v>
@@ -8746,7 +8741,7 @@
     <row r="62" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="32">
         <v>2.7447069476606898</v>
@@ -8866,7 +8861,7 @@
     <row r="63" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C63" s="32">
         <v>1.5793939934362999</v>
@@ -8986,7 +8981,7 @@
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C64" s="36">
         <v>1.8779309926958201</v>
@@ -9106,7 +9101,7 @@
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C65" s="39">
         <v>1.9622806850622601</v>
@@ -9226,7 +9221,7 @@
     <row r="66" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" s="42">
         <v>1.7166104839621901</v>
@@ -9346,7 +9341,7 @@
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" s="39">
         <v>2.9494252843081101</v>
@@ -9466,7 +9461,7 @@
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" s="39">
         <v>2.6069135580581602</v>
@@ -9586,7 +9581,7 @@
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C69" s="39">
         <v>2.79515580385632</v>
@@ -9706,7 +9701,7 @@
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" s="39">
         <v>2.9487719396262602</v>
@@ -9826,7 +9821,7 @@
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" s="39">
         <v>2.68196264582348</v>
@@ -9946,7 +9941,7 @@
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" s="39">
         <v>3.1386700567656001</v>
@@ -10066,7 +10061,7 @@
     <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" s="39">
         <v>2.89079377573163</v>
@@ -10186,7 +10181,7 @@
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" s="39">
         <v>2.2668385990013</v>
@@ -10306,7 +10301,7 @@
     <row r="75" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C75" s="42">
         <v>2.3732164817720198</v>
@@ -10426,7 +10421,7 @@
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="39">
         <v>1.97052142910079</v>
@@ -10546,7 +10541,7 @@
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="39">
         <v>1.88055058328276</v>
@@ -10666,7 +10661,7 @@
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C78" s="39">
         <v>0.28907911706758999</v>
@@ -10786,7 +10781,7 @@
     <row r="79" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" s="42">
         <v>0.81292711586722</v>
@@ -10906,7 +10901,7 @@
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C80" s="39">
         <v>2.70383884291443</v>
@@ -11026,7 +11021,7 @@
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81" s="39">
         <v>1.64188827898339</v>
@@ -11146,7 +11141,7 @@
     <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C82" s="39">
         <v>2.7573862976283801</v>
@@ -11266,7 +11261,7 @@
     <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C83" s="42">
         <v>1.5745149659797599</v>
@@ -11386,7 +11381,7 @@
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C84" s="39">
         <v>2.7946047459596501</v>
@@ -11506,7 +11501,7 @@
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" s="39">
         <v>3.1365831696269901</v>
@@ -11626,7 +11621,7 @@
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C86" s="39">
         <v>2.7488863972137301</v>
@@ -11746,7 +11741,7 @@
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C87" s="39">
         <v>2.11958284323712</v>
@@ -11866,7 +11861,7 @@
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C88" s="39">
         <v>2.46539272099742</v>
@@ -11986,7 +11981,7 @@
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C89" s="39">
         <v>1.51776652481452</v>
@@ -12106,7 +12101,7 @@
     <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C90" s="42">
         <v>0.68591256154891</v>
@@ -12226,7 +12221,7 @@
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C91" s="39">
         <v>2.8718783237353702</v>
@@ -12346,7 +12341,7 @@
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C92" s="39">
         <v>2.5391792081267601</v>
@@ -12466,7 +12461,7 @@
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C93" s="39">
         <v>1.84739903181355</v>
@@ -12586,7 +12581,7 @@
     <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C94" s="39">
         <v>1.6125680503981299</v>
@@ -12706,7 +12701,7 @@
     <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C95" s="39">
         <v>2.8539626077896698</v>
@@ -12826,7 +12821,7 @@
     <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C96" s="42">
         <v>2.0962638317743001</v>
@@ -12946,7 +12941,7 @@
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C97" s="39">
         <v>2.8898432609638198</v>
@@ -13066,7 +13061,7 @@
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C98" s="39">
         <v>2.6425258228622601</v>
@@ -13186,7 +13181,7 @@
     <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C99" s="42">
         <v>3.0774722395306799</v>
@@ -13347,7 +13342,7 @@
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -13391,7 +13386,7 @@
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -13435,7 +13430,7 @@
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -13479,7 +13474,7 @@
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -13523,7 +13518,7 @@
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -13649,7 +13644,7 @@
     </row>
     <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -13733,7 +13728,7 @@
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -13776,7 +13771,7 @@
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -13860,7 +13855,7 @@
     </row>
     <row r="113" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -13903,7 +13898,7 @@
     </row>
     <row r="114" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -13987,7 +13982,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
   <si>
     <t>Tableau 3 : Taux de croissance annuel de la population, 1990-2026</t>
   </si>
@@ -571,19 +571,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -598,10 +601,10 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
+    <t>Jusqu'à 2020 les chiffres sont des estimations. A partir de 2021 il s'agit de projections.</t>
+  </si>
+  <si>
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
-  </si>
-  <si>
-    <t>Jusqu'à 2020 les chiffres sont des estimations. A partir de 2021 il s'agit de projections.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
@@ -12344,118 +12347,118 @@
         <v>181</v>
       </c>
       <c r="C92" s="39">
-        <v>2.5391792081267601</v>
+        <v>2.5391067461029602</v>
       </c>
       <c r="D92" s="39">
-        <v>2.6602107883657999</v>
+        <v>2.6600944005503702</v>
       </c>
       <c r="E92" s="39">
-        <v>2.7428879072194601</v>
+        <v>2.7427372501042502</v>
       </c>
       <c r="F92" s="39">
-        <v>2.7419630112156299</v>
+        <v>2.7418217361062398</v>
       </c>
       <c r="G92" s="39">
-        <v>2.63880652512263</v>
+        <v>2.6387317700995898</v>
       </c>
       <c r="H92" s="39">
-        <v>2.4712187364875202</v>
+        <v>2.47122859195288</v>
       </c>
       <c r="I92" s="39">
-        <v>2.2815016286071899</v>
+        <v>2.2816174832450198</v>
       </c>
       <c r="J92" s="39">
-        <v>2.1198376801113898</v>
+        <v>2.12001958940473</v>
       </c>
       <c r="K92" s="39">
-        <v>2.0065699697733499</v>
+        <v>2.00674634839402</v>
       </c>
       <c r="L92" s="39">
-        <v>1.96012606704863</v>
+        <v>1.9602112845058799</v>
       </c>
       <c r="M92" s="39">
-        <v>1.9563364328532</v>
+        <v>1.9562751415745701</v>
       </c>
       <c r="N92" s="39">
-        <v>1.9674481749652799</v>
+        <v>1.96721903154387</v>
       </c>
       <c r="O92" s="39">
-        <v>1.9557155307824401</v>
+        <v>1.95533812685174</v>
       </c>
       <c r="P92" s="39">
-        <v>1.9044838037198999</v>
+        <v>1.90399647740589</v>
       </c>
       <c r="Q92" s="39">
-        <v>1.80026932043218</v>
+        <v>1.7997048954392401</v>
       </c>
       <c r="R92" s="39">
-        <v>1.66468961123198</v>
+        <v>1.66407211676152</v>
       </c>
       <c r="S92" s="39">
-        <v>1.5215518540555999</v>
+        <v>1.5208921504398201</v>
       </c>
       <c r="T92" s="39">
-        <v>1.4039711334427301</v>
+        <v>1.4032660991200701</v>
       </c>
       <c r="U92" s="39">
-        <v>1.3287081000541701</v>
+        <v>1.3279308090383199</v>
       </c>
       <c r="V92" s="39">
-        <v>1.3096001998731199</v>
+        <v>1.3087400613637701</v>
       </c>
       <c r="W92" s="39">
-        <v>1.32980859254614</v>
+        <v>1.32885875688924</v>
       </c>
       <c r="X92" s="39">
-        <v>1.36087218331347</v>
+        <v>1.3598326312662901</v>
       </c>
       <c r="Y92" s="39">
-        <v>1.3816138470442301</v>
+        <v>1.3805033937020801</v>
       </c>
       <c r="Z92" s="39">
-        <v>1.3936499034530501</v>
+        <v>1.3925043026008299</v>
       </c>
       <c r="AA92" s="39">
-        <v>1.3902375220790699</v>
+        <v>1.38909888651311</v>
       </c>
       <c r="AB92" s="39">
-        <v>1.37577724384832</v>
+        <v>1.37467666432769</v>
       </c>
       <c r="AC92" s="39">
-        <v>1.35976860327176</v>
+        <v>1.35871248512289</v>
       </c>
       <c r="AD92" s="39">
-        <v>1.34776888644181</v>
+        <v>1.34675347774509</v>
       </c>
       <c r="AE92" s="39">
-        <v>1.33665376458285</v>
+        <v>1.3356699859812899</v>
       </c>
       <c r="AF92" s="39">
-        <v>1.3272009813307899</v>
+        <v>1.3262409333930201</v>
       </c>
       <c r="AG92" s="39">
-        <v>1.3175825147864</v>
+        <v>1.31663668876929</v>
       </c>
       <c r="AH92" s="39">
-        <v>1.3078796477216099</v>
+        <v>1.30695173069502</v>
       </c>
       <c r="AI92" s="39">
-        <v>1.2935148790728499</v>
+        <v>1.292597401174</v>
       </c>
       <c r="AJ92" s="39">
-        <v>1.2692264008610501</v>
+        <v>1.2683129959308901</v>
       </c>
       <c r="AK92" s="39">
-        <v>1.2326172744735</v>
+        <v>1.23168783970022</v>
       </c>
       <c r="AL92" s="39">
-        <v>1.1874396211093401</v>
+        <v>1.18648649731139</v>
       </c>
       <c r="AM92" s="39">
-        <v>1.13924432477406</v>
+        <v>1.1382600304350201</v>
       </c>
       <c r="AN92" s="40">
-        <v>1.2243932142309799</v>
+        <v>1.22345365292056</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
@@ -12602,7 +12605,7 @@
         <v>1.53156098295129</v>
       </c>
       <c r="I94" s="39">
-        <v>1.50074947596304</v>
+        <v>1.50074947596306</v>
       </c>
       <c r="J94" s="39">
         <v>1.47197145263231</v>
@@ -12614,10 +12617,10 @@
         <v>1.3833019480831199</v>
       </c>
       <c r="M94" s="39">
-        <v>1.3290567408159999</v>
+        <v>1.3290567408160301</v>
       </c>
       <c r="N94" s="39">
-        <v>1.2648398512732999</v>
+        <v>1.2648398512732799</v>
       </c>
       <c r="O94" s="39">
         <v>1.2126175484853801</v>
@@ -12659,7 +12662,7 @@
         <v>1.1513814394874999</v>
       </c>
       <c r="AB94" s="39">
-        <v>1.1475772079355699</v>
+        <v>1.1475772079355899</v>
       </c>
       <c r="AC94" s="39">
         <v>1.1487670045412099</v>
@@ -12689,10 +12692,10 @@
         <v>0.87100200974726005</v>
       </c>
       <c r="AL94" s="39">
-        <v>0.85383242127679004</v>
+        <v>0.85383242127681003</v>
       </c>
       <c r="AM94" s="39">
-        <v>0.83899473986763995</v>
+        <v>0.83899473986761997</v>
       </c>
       <c r="AN94" s="40">
         <v>0.87876877271775</v>
@@ -12821,7 +12824,7 @@
     <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C96" s="42">
         <v>2.0962638317743001</v>
@@ -12941,7 +12944,7 @@
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C97" s="39">
         <v>2.8898432609638198</v>
@@ -13061,7 +13064,7 @@
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C98" s="39">
         <v>2.6425258228622601</v>
@@ -13181,7 +13184,7 @@
     <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C99" s="42">
         <v>3.0774722395306799</v>
@@ -13342,7 +13345,7 @@
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -13386,7 +13389,7 @@
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -13430,7 +13433,7 @@
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -13474,7 +13477,7 @@
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -13518,7 +13521,7 @@
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -13644,7 +13647,7 @@
     </row>
     <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -13728,7 +13731,7 @@
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -13771,7 +13774,7 @@
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -13855,7 +13858,7 @@
     </row>
     <row r="113" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -13898,7 +13901,7 @@
     </row>
     <row r="114" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
-  <si>
-    <t>Tableau 3 : Taux de croissance annuel de la population, 1990-2026</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
   <si>
     <t>ISO3 Code</t>
   </si>
@@ -139,7 +136,7 @@
     <t>2025</t>
   </si>
   <si>
-    <t>Croissance annuelle moyenne projetée, 2021-26</t>
+    <t>Croissance annuelle moyenne projetée, 2022-27</t>
   </si>
   <si>
     <t>AGO</t>
@@ -601,7 +598,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Jusqu'à 2020 les chiffres sont des estimations. A partir de 2021 il s'agit de projections.</t>
+    <t>Jusqu'à 2021 les chiffres sont des estimations. A partir de 2022 il s'agit de projections.</t>
   </si>
   <si>
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
@@ -1366,7 +1363,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN115"/>
+  <dimension ref="A1:AO115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1375,15 +1372,15 @@
     <col min="1" max="1" width="5.453125" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6328125" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="39" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.1796875" customWidth="1"/>
+    <col min="4" max="40" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
+      <c r="C1" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1421,136 +1418,140 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
-      <c r="AN1" s="4"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="1:40" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="AE2" s="8">
         <v>2018</v>
       </c>
       <c r="AF2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="AM2" s="8">
         <v>2026</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" s="8">
+        <v>2027</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="C3" s="12">
         <v>3.4361276476274001</v>
@@ -1663,16 +1664,19 @@
       <c r="AM3" s="12">
         <v>3.1443032892736</v>
       </c>
-      <c r="AN3" s="13">
-        <v>3.1824969078348802</v>
+      <c r="AN3" s="12">
+        <v>3.1256703836672002</v>
+      </c>
+      <c r="AO3" s="13">
+        <v>3.16300258290567</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="C4" s="15">
         <v>3.3967491747583902</v>
@@ -1785,16 +1789,19 @@
       <c r="AM4" s="15">
         <v>1.63281122214518</v>
       </c>
-      <c r="AN4" s="16">
-        <v>1.7129023495415101</v>
+      <c r="AN4" s="15">
+        <v>1.5940486805606799</v>
+      </c>
+      <c r="AO4" s="16">
+        <v>1.66535187880132</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="C5" s="19">
         <v>2.9962504602391</v>
@@ -1907,16 +1914,19 @@
       <c r="AM5" s="19">
         <v>1.09815394421788</v>
       </c>
-      <c r="AN5" s="20">
-        <v>1.08112388509223</v>
+      <c r="AN5" s="19">
+        <v>1.10796942596079</v>
+      </c>
+      <c r="AO5" s="20">
+        <v>1.09029324406245</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="19">
         <v>2.2317174737963801</v>
@@ -2029,16 +2039,19 @@
       <c r="AM6" s="19">
         <v>0.84401463838589996</v>
       </c>
-      <c r="AN6" s="20">
-        <v>0.79592983288927999</v>
+      <c r="AN6" s="19">
+        <v>0.86731075793868995</v>
+      </c>
+      <c r="AO6" s="20">
+        <v>0.81535996881036998</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="19">
         <v>3.6243571752203398</v>
@@ -2151,16 +2164,19 @@
       <c r="AM7" s="19">
         <v>2.6531933793624298</v>
       </c>
-      <c r="AN7" s="20">
-        <v>2.69096129053061</v>
+      <c r="AN7" s="19">
+        <v>2.6293785556993998</v>
+      </c>
+      <c r="AO7" s="20">
+        <v>2.6741177030402001</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="19">
         <v>1.41607612086567</v>
@@ -2273,16 +2289,19 @@
       <c r="AM8" s="19">
         <v>2.7909899052417102</v>
       </c>
-      <c r="AN8" s="20">
-        <v>2.8354736059216199</v>
+      <c r="AN8" s="19">
+        <v>2.7653885649016701</v>
+      </c>
+      <c r="AO8" s="20">
+        <v>2.8124750203229598</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="C9" s="19">
         <v>3.3829457341969098</v>
@@ -2395,16 +2414,19 @@
       <c r="AM9" s="19">
         <v>1.69684954221037</v>
       </c>
-      <c r="AN9" s="20">
-        <v>1.74620474264862</v>
+      <c r="AN9" s="19">
+        <v>1.67147891342705</v>
+      </c>
+      <c r="AO9" s="20">
+        <v>1.72082701486356</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="19">
         <v>2.4226263382389299</v>
@@ -2517,16 +2539,19 @@
       <c r="AM10" s="19">
         <v>1.0440764297295499</v>
       </c>
-      <c r="AN10" s="20">
-        <v>1.1129510239284299</v>
+      <c r="AN10" s="19">
+        <v>1.0126903629291699</v>
+      </c>
+      <c r="AO10" s="20">
+        <v>1.07761160208137</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="C11" s="15">
         <v>2.77038985836551</v>
@@ -2639,16 +2664,19 @@
       <c r="AM11" s="15">
         <v>2.83705653020245</v>
       </c>
-      <c r="AN11" s="16">
-        <v>2.8718894688817702</v>
+      <c r="AN11" s="15">
+        <v>2.8174490706967199</v>
+      </c>
+      <c r="AO11" s="16">
+        <v>2.8544466654049998</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="C12" s="22">
         <v>2.74336281442746</v>
@@ -2761,16 +2789,19 @@
       <c r="AM12" s="22">
         <v>1.737402691477</v>
       </c>
-      <c r="AN12" s="23">
-        <v>1.6640738776097801</v>
+      <c r="AN12" s="22">
+        <v>1.7696651372948</v>
+      </c>
+      <c r="AO12" s="23">
+        <v>1.7009503130347701</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>60</v>
       </c>
       <c r="C13" s="26">
         <v>2.6206581301158498</v>
@@ -2883,16 +2914,19 @@
       <c r="AM13" s="26">
         <v>2.1695063316040901</v>
       </c>
-      <c r="AN13" s="27">
-        <v>2.1938854318349899</v>
+      <c r="AN13" s="26">
+        <v>2.1567396091809901</v>
+      </c>
+      <c r="AO13" s="27">
+        <v>2.1812711841112198</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="C14" s="19">
         <v>2.4851759040630301</v>
@@ -3005,16 +3039,19 @@
       <c r="AM14" s="19">
         <v>2.8385144499116302</v>
       </c>
-      <c r="AN14" s="20">
-        <v>2.9233503137397601</v>
+      <c r="AN14" s="19">
+        <v>2.7978222793186398</v>
+      </c>
+      <c r="AO14" s="20">
+        <v>2.8800556038461198</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="C15" s="19">
         <v>3.1006912684591801</v>
@@ -3127,16 +3164,19 @@
       <c r="AM15" s="19">
         <v>2.4221790877678999</v>
       </c>
-      <c r="AN15" s="20">
-        <v>2.4715949636823402</v>
+      <c r="AN15" s="19">
+        <v>2.3976613358428001</v>
+      </c>
+      <c r="AO15" s="20">
+        <v>2.4462237231327002</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="C16" s="19">
         <v>2.2218094608547299</v>
@@ -3249,16 +3289,19 @@
       <c r="AM16" s="19">
         <v>2.1623130361643699</v>
       </c>
-      <c r="AN16" s="20">
-        <v>2.08110868331481</v>
+      <c r="AN16" s="19">
+        <v>2.1762859859232999</v>
+      </c>
+      <c r="AO16" s="20">
+        <v>2.12332501002459</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>68</v>
       </c>
       <c r="C17" s="12">
         <v>3.27887591293972</v>
@@ -3371,16 +3414,19 @@
       <c r="AM17" s="12">
         <v>2.8004073937396301</v>
       </c>
-      <c r="AN17" s="13">
-        <v>2.8761551138840402</v>
+      <c r="AN17" s="12">
+        <v>2.7627377453114401</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>2.8391783270673701</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="C18" s="12">
         <v>2.7725484604002899</v>
@@ -3493,16 +3539,19 @@
       <c r="AM18" s="12">
         <v>2.4284486827878902</v>
       </c>
-      <c r="AN18" s="13">
-        <v>2.45426145479466</v>
+      <c r="AN18" s="12">
+        <v>2.4152037040284799</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>2.4395706289549501</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="C19" s="15">
         <v>3.4282503744908799</v>
@@ -3615,16 +3664,19 @@
       <c r="AM19" s="15">
         <v>2.9508116087154899</v>
       </c>
-      <c r="AN19" s="16">
-        <v>3.0220992618911899</v>
+      <c r="AN19" s="15">
+        <v>2.9160160016284098</v>
+      </c>
+      <c r="AO19" s="16">
+        <v>2.98550329105176</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="C20" s="12">
         <v>3.0908464905808901</v>
@@ -3737,16 +3789,19 @@
       <c r="AM20" s="12">
         <v>2.8857559243935298</v>
       </c>
-      <c r="AN20" s="13">
-        <v>3.0445601284989401</v>
+      <c r="AN20" s="12">
+        <v>2.8147893093335701</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>2.9622142408841001</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>76</v>
       </c>
       <c r="C21" s="12">
         <v>2.79079888363714</v>
@@ -3859,16 +3914,19 @@
       <c r="AM21" s="12">
         <v>2.0713341630247002</v>
       </c>
-      <c r="AN21" s="13">
-        <v>2.1873258876358599</v>
+      <c r="AN21" s="12">
+        <v>2.0249684940138599</v>
+      </c>
+      <c r="AO21" s="13">
+        <v>2.1297807687101802</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="C22" s="19">
         <v>2.4915529648448498</v>
@@ -3981,16 +4039,19 @@
       <c r="AM22" s="19">
         <v>2.0738815114084201</v>
       </c>
-      <c r="AN22" s="20">
-        <v>1.99785705991809</v>
+      <c r="AN22" s="19">
+        <v>2.11123097012806</v>
+      </c>
+      <c r="AO22" s="20">
+        <v>2.0337363898777401</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="26">
         <v>3.1839030159509698</v>
@@ -4103,16 +4164,19 @@
       <c r="AM23" s="26">
         <v>2.7853821610080298</v>
       </c>
-      <c r="AN23" s="27">
-        <v>2.8483153180113701</v>
+      <c r="AN23" s="26">
+        <v>2.7538805659833798</v>
+      </c>
+      <c r="AO23" s="27">
+        <v>2.8162007787982701</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C24" s="19">
         <v>2.9927084011030201</v>
@@ -4225,16 +4289,19 @@
       <c r="AM24" s="19">
         <v>2.0117056752214002</v>
       </c>
-      <c r="AN24" s="20">
-        <v>2.0724313214492098</v>
+      <c r="AN24" s="19">
+        <v>1.98127822107546</v>
+      </c>
+      <c r="AO24" s="20">
+        <v>2.0419917091026401</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="C25" s="19">
         <v>4.7065291608658297</v>
@@ -4347,16 +4414,19 @@
       <c r="AM25" s="19">
         <v>1.2067519018841699</v>
       </c>
-      <c r="AN25" s="20">
-        <v>1.2951919825156599</v>
+      <c r="AN25" s="19">
+        <v>1.16345216419882</v>
+      </c>
+      <c r="AO25" s="20">
+        <v>1.25047293742342</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="C26" s="19">
         <v>1.2327756523111</v>
@@ -4469,16 +4539,19 @@
       <c r="AM26" s="19">
         <v>1.8425417308593599</v>
       </c>
-      <c r="AN26" s="20">
-        <v>1.7985611699444799</v>
+      <c r="AN26" s="19">
+        <v>1.8482188847088099</v>
+      </c>
+      <c r="AO26" s="20">
+        <v>1.8306567288261899</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="C27" s="19">
         <v>3.4914100243281601</v>
@@ -4591,16 +4664,19 @@
       <c r="AM27" s="19">
         <v>2.32453707490561</v>
       </c>
-      <c r="AN27" s="20">
-        <v>2.40751228780884</v>
+      <c r="AN27" s="19">
+        <v>2.2830694122761002</v>
+      </c>
+      <c r="AO27" s="20">
+        <v>2.36589659310948</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="C28" s="19">
         <v>3.4422627896609801</v>
@@ -4713,16 +4789,19 @@
       <c r="AM28" s="19">
         <v>2.1281460734897202</v>
       </c>
-      <c r="AN28" s="20">
-        <v>2.1838664111900599</v>
+      <c r="AN28" s="19">
+        <v>2.0996540767335601</v>
+      </c>
+      <c r="AO28" s="20">
+        <v>2.1565814239031802</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="C29" s="19">
         <v>2.9284245419572299</v>
@@ -4835,16 +4914,19 @@
       <c r="AM29" s="19">
         <v>2.54392620310922</v>
       </c>
-      <c r="AN29" s="20">
-        <v>2.59448039689982</v>
+      <c r="AN29" s="19">
+        <v>2.5162122226491701</v>
+      </c>
+      <c r="AO29" s="20">
+        <v>2.5695387906065701</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="C30" s="19">
         <v>0.98356422481193995</v>
@@ -4957,16 +5039,19 @@
       <c r="AM30" s="19">
         <v>6.0314623006299996E-3</v>
       </c>
-      <c r="AN30" s="20">
-        <v>5.1586888238479997E-2</v>
+      <c r="AN30" s="19">
+        <v>-1.7388362016300001E-2</v>
+      </c>
+      <c r="AO30" s="20">
+        <v>2.781808222927E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="C31" s="19">
         <v>0.16352930878085001</v>
@@ -5079,16 +5164,19 @@
       <c r="AM31" s="19">
         <v>2.2571873715227002</v>
       </c>
-      <c r="AN31" s="20">
-        <v>2.3423805132092501</v>
+      <c r="AN31" s="19">
+        <v>2.2154671592103501</v>
+      </c>
+      <c r="AO31" s="20">
+        <v>2.2974743664455</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="C32" s="19">
         <v>0.68912382827548002</v>
@@ -5201,16 +5289,19 @@
       <c r="AM32" s="19">
         <v>0.38895448637170998</v>
       </c>
-      <c r="AN32" s="20">
-        <v>0.45385371051737999</v>
+      <c r="AN32" s="19">
+        <v>0.36866814924636998</v>
+      </c>
+      <c r="AO32" s="20">
+        <v>0.42183809428626001</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C33" s="19">
         <v>1.2872930663008</v>
@@ -5323,16 +5414,19 @@
       <c r="AM33" s="19">
         <v>2.9293143059357498</v>
       </c>
-      <c r="AN33" s="20">
-        <v>2.9452850049090702</v>
+      <c r="AN33" s="19">
+        <v>2.9139048339067402</v>
+      </c>
+      <c r="AO33" s="20">
+        <v>2.9384323161062</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="C34" s="15">
         <v>-0.34403915246110001</v>
@@ -5445,16 +5539,19 @@
       <c r="AM34" s="15">
         <v>2.2052530771057102</v>
       </c>
-      <c r="AN34" s="16">
-        <v>2.26980425675516</v>
+      <c r="AN34" s="15">
+        <v>2.1416025323106398</v>
+      </c>
+      <c r="AO34" s="16">
+        <v>2.2814274573924198</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C35" s="19">
         <v>3.4448372623366201</v>
@@ -5567,16 +5664,19 @@
       <c r="AM35" s="19">
         <v>2.3336633404775098</v>
       </c>
-      <c r="AN35" s="20">
-        <v>2.3764107429424399</v>
+      <c r="AN35" s="19">
+        <v>2.30884248580954</v>
+      </c>
+      <c r="AO35" s="20">
+        <v>2.3560213627670898</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C36" s="19">
         <v>3.2447661256811702</v>
@@ -5689,16 +5789,19 @@
       <c r="AM36" s="19">
         <v>2.8466250360235099</v>
       </c>
-      <c r="AN36" s="20">
-        <v>2.88500592649679</v>
+      <c r="AN36" s="19">
+        <v>2.8265009865443802</v>
+      </c>
+      <c r="AO36" s="20">
+        <v>2.86489193824135</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="C37" s="19">
         <v>3.5277250708865902</v>
@@ -5811,16 +5914,19 @@
       <c r="AM37" s="19">
         <v>2.61849459493508</v>
       </c>
-      <c r="AN37" s="20">
-        <v>2.6333260584222802</v>
+      <c r="AN37" s="19">
+        <v>2.6252074334101301</v>
+      </c>
+      <c r="AO37" s="20">
+        <v>2.6026872152602198</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="26">
         <v>2.9940603518297602</v>
@@ -5933,16 +6039,19 @@
       <c r="AM38" s="26">
         <v>2.4349777056301898</v>
       </c>
-      <c r="AN38" s="27">
-        <v>2.4865605621793998</v>
+      <c r="AN38" s="26">
+        <v>2.40885631458467</v>
+      </c>
+      <c r="AO38" s="27">
+        <v>2.4593864146492499</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="C39" s="12">
         <v>2.5996774022918299</v>
@@ -6055,16 +6164,19 @@
       <c r="AM39" s="12">
         <v>1.33910499537422</v>
       </c>
-      <c r="AN39" s="13">
-        <v>1.4820073557434399</v>
+      <c r="AN39" s="12">
+        <v>1.2743650117921701</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>1.4080826760616501</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="C40" s="19">
         <v>2.4563431716186699</v>
@@ -6177,16 +6289,19 @@
       <c r="AM40" s="19">
         <v>1.63411491186143</v>
       </c>
-      <c r="AN40" s="20">
-        <v>1.7227325780304601</v>
+      <c r="AN40" s="19">
+        <v>1.59663477989946</v>
+      </c>
+      <c r="AO40" s="20">
+        <v>1.67789759060195</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>113</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>114</v>
       </c>
       <c r="C41" s="12">
         <v>2.4885566542348001</v>
@@ -6299,16 +6414,19 @@
       <c r="AM41" s="12">
         <v>0.99342090326876997</v>
       </c>
-      <c r="AN41" s="13">
-        <v>1.07286902656039</v>
+      <c r="AN41" s="12">
+        <v>0.95197300676818997</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>1.0269830891718601</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>116</v>
       </c>
       <c r="C42" s="12">
         <v>2.6461954223771</v>
@@ -6421,16 +6539,19 @@
       <c r="AM42" s="12">
         <v>2.50276131572442</v>
       </c>
-      <c r="AN42" s="13">
-        <v>2.5787179547699801</v>
+      <c r="AN42" s="12">
+        <v>2.4668767203306601</v>
+      </c>
+      <c r="AO42" s="13">
+        <v>2.5407178485641801</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="C43" s="19">
         <v>1.8551649508138199</v>
@@ -6543,16 +6664,19 @@
       <c r="AM43" s="19">
         <v>1.0103822396792601</v>
       </c>
-      <c r="AN43" s="20">
-        <v>1.0792312500727901</v>
+      <c r="AN43" s="19">
+        <v>0.97599379595018998</v>
+      </c>
+      <c r="AO43" s="20">
+        <v>1.04523026015266</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="C44" s="19">
         <v>2.2617025782575699</v>
@@ -6665,16 +6789,19 @@
       <c r="AM44" s="19">
         <v>0.73539202387545</v>
       </c>
-      <c r="AN44" s="20">
-        <v>0.82700997778145002</v>
+      <c r="AN44" s="19">
+        <v>0.69081157093300005</v>
+      </c>
+      <c r="AO44" s="20">
+        <v>0.77936079879704001</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="26">
         <v>2.3543665895969101</v>
@@ -6787,16 +6914,19 @@
       <c r="AM45" s="26">
         <v>1.4123148354858499</v>
       </c>
-      <c r="AN45" s="27">
-        <v>1.5063126656754</v>
+      <c r="AN45" s="26">
+        <v>1.37022216428622</v>
+      </c>
+      <c r="AO45" s="27">
+        <v>1.45830303002321</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="C46" s="19">
         <v>3.2877249471993801</v>
@@ -6909,16 +7039,19 @@
       <c r="AM46" s="19">
         <v>2.5911902454517399</v>
       </c>
-      <c r="AN46" s="20">
-        <v>2.6350118991268698</v>
+      <c r="AN46" s="19">
+        <v>2.5683379687805998</v>
+      </c>
+      <c r="AO46" s="20">
+        <v>2.6126645213086399</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="C47" s="19">
         <v>2.6948706837371299</v>
@@ -7031,16 +7164,19 @@
       <c r="AM47" s="19">
         <v>2.73649894818324</v>
       </c>
-      <c r="AN47" s="20">
-        <v>2.7764657840957199</v>
+      <c r="AN47" s="19">
+        <v>2.7155041486666098</v>
+      </c>
+      <c r="AO47" s="20">
+        <v>2.75601059946715</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="C48" s="19">
         <v>2.0451114197717102</v>
@@ -7153,16 +7289,19 @@
       <c r="AM48" s="19">
         <v>0.91611545142603001</v>
       </c>
-      <c r="AN48" s="20">
-        <v>0.96934781103323997</v>
+      <c r="AN48" s="19">
+        <v>0.89253613897990003</v>
+      </c>
+      <c r="AO48" s="20">
+        <v>0.94230396930184002</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="C49" s="19">
         <v>3.6724340451553998</v>
@@ -7275,16 +7414,19 @@
       <c r="AM49" s="19">
         <v>2.4817979822786098</v>
       </c>
-      <c r="AN49" s="20">
-        <v>2.5142187176820299</v>
+      <c r="AN49" s="19">
+        <v>2.4623853254140098</v>
+      </c>
+      <c r="AO49" s="20">
+        <v>2.4975793001842601</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>131</v>
       </c>
       <c r="C50" s="19">
         <v>4.3646403409233701</v>
@@ -7397,16 +7539,19 @@
       <c r="AM50" s="19">
         <v>2.7389214298688498</v>
       </c>
-      <c r="AN50" s="20">
-        <v>2.8089609137888401</v>
+      <c r="AN50" s="19">
+        <v>2.7016136372866</v>
+      </c>
+      <c r="AO50" s="20">
+        <v>2.7738280996043798</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="C51" s="15">
         <v>2.9251935898990902</v>
@@ -7519,16 +7664,19 @@
       <c r="AM51" s="15">
         <v>1.9715850282553</v>
       </c>
-      <c r="AN51" s="16">
-        <v>2.0304504403921402</v>
+      <c r="AN51" s="15">
+        <v>1.9429700209420999</v>
+      </c>
+      <c r="AO51" s="16">
+        <v>2.0009662358365201</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="C52" s="19">
         <v>2.9963939891171298</v>
@@ -7641,16 +7789,19 @@
       <c r="AM52" s="19">
         <v>2.6174751970294601</v>
       </c>
-      <c r="AN52" s="20">
-        <v>2.6681700856717301</v>
+      <c r="AN52" s="19">
+        <v>2.5877451925981001</v>
+      </c>
+      <c r="AO52" s="20">
+        <v>2.6397494585961101</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>137</v>
       </c>
       <c r="C53" s="19">
         <v>2.2524014921648798</v>
@@ -7763,16 +7914,19 @@
       <c r="AM53" s="19">
         <v>2.2412190218242398</v>
       </c>
-      <c r="AN53" s="20">
-        <v>2.3064651305239701</v>
+      <c r="AN53" s="19">
+        <v>2.2098415375659402</v>
+      </c>
+      <c r="AO53" s="20">
+        <v>2.2734033739787902</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="C54" s="19">
         <v>-1.4485178470293001</v>
@@ -7885,16 +8039,19 @@
       <c r="AM54" s="19">
         <v>2.3283289360833499</v>
       </c>
-      <c r="AN54" s="20">
-        <v>2.3730577715863799</v>
+      <c r="AN54" s="19">
+        <v>2.3056016187539701</v>
+      </c>
+      <c r="AO54" s="20">
+        <v>2.3519147729905501</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="C55" s="19">
         <v>1.84400980653181</v>
@@ -8007,16 +8164,19 @@
       <c r="AM55" s="19">
         <v>2.8998510925827699</v>
       </c>
-      <c r="AN55" s="20">
-        <v>2.9295410607975501</v>
+      <c r="AN55" s="19">
+        <v>2.8818815652329701</v>
+      </c>
+      <c r="AO55" s="20">
+        <v>2.9132246554710099</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="C56" s="19">
         <v>3.1663539514580599</v>
@@ -8129,16 +8289,19 @@
       <c r="AM56" s="19">
         <v>3.7019814004293399</v>
       </c>
-      <c r="AN56" s="20">
-        <v>3.7458717423058299</v>
+      <c r="AN56" s="19">
+        <v>3.6779560883403399</v>
+      </c>
+      <c r="AO56" s="20">
+        <v>3.7231508047504098</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>145</v>
       </c>
       <c r="C57" s="12">
         <v>2.6128529346330902</v>
@@ -8251,16 +8414,19 @@
       <c r="AM57" s="12">
         <v>2.4556888901076999</v>
       </c>
-      <c r="AN57" s="13">
-        <v>2.49081076507216</v>
+      <c r="AN57" s="12">
+        <v>2.4381275737451702</v>
+      </c>
+      <c r="AO57" s="13">
+        <v>2.4726455692176001</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="C58" s="19">
         <v>3.0505191270335601</v>
@@ -8373,16 +8539,19 @@
       <c r="AM58" s="19">
         <v>2.5368576753083398</v>
       </c>
-      <c r="AN58" s="20">
-        <v>2.5944252048332599</v>
+      <c r="AN58" s="19">
+        <v>2.50947184324672</v>
+      </c>
+      <c r="AO58" s="20">
+        <v>2.56439178083621</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="C59" s="19">
         <v>1.5355509099447699</v>
@@ -8495,16 +8664,19 @@
       <c r="AM59" s="19">
         <v>1.9045917792588101</v>
       </c>
-      <c r="AN59" s="20">
-        <v>1.96556745121095</v>
+      <c r="AN59" s="19">
+        <v>1.8739652215252101</v>
+      </c>
+      <c r="AO59" s="20">
+        <v>1.9347789878953601</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="C60" s="15">
         <v>2.6027254634753101</v>
@@ -8617,14 +8789,17 @@
       <c r="AM60" s="15">
         <v>2.3212184882300102</v>
       </c>
-      <c r="AN60" s="16">
-        <v>2.35448208530573</v>
+      <c r="AN60" s="15">
+        <v>2.3046148047316102</v>
+      </c>
+      <c r="AO60" s="16">
+        <v>2.33749954562319</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="26">
         <v>2.68196264582348</v>
@@ -8737,14 +8912,17 @@
       <c r="AM61" s="26">
         <v>2.53541609402876</v>
       </c>
-      <c r="AN61" s="27">
-        <v>2.5727849527378699</v>
+      <c r="AN61" s="26">
+        <v>2.5161389841558801</v>
+      </c>
+      <c r="AO61" s="27">
+        <v>2.5534356657534301</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="32">
         <v>2.7447069476606898</v>
@@ -8857,14 +9035,17 @@
       <c r="AM62" s="32">
         <v>2.3200762786511002</v>
       </c>
-      <c r="AN62" s="33">
-        <v>2.3682700582323002</v>
+      <c r="AN62" s="32">
+        <v>2.29647960639827</v>
+      </c>
+      <c r="AO62" s="33">
+        <v>2.3432746749161302</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="32">
         <v>1.5793939934362999</v>
@@ -8977,14 +9158,17 @@
       <c r="AM63" s="32">
         <v>0.59734424378083995</v>
       </c>
-      <c r="AN63" s="33">
-        <v>0.65000407972388996</v>
+      <c r="AN63" s="32">
+        <v>0.57168716786256002</v>
+      </c>
+      <c r="AO63" s="33">
+        <v>0.62341295935234997</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="36">
         <v>1.8779309926958201</v>
@@ -9097,14 +9281,17 @@
       <c r="AM64" s="36">
         <v>0.76299253958732005</v>
       </c>
-      <c r="AN64" s="37">
-        <v>0.81684253677674001</v>
+      <c r="AN64" s="36">
+        <v>0.73569825749924</v>
+      </c>
+      <c r="AO64" s="37">
+        <v>0.79013566214387998</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="39">
         <v>1.9622806850622601</v>
@@ -9217,14 +9404,17 @@
       <c r="AM65" s="39">
         <v>0.71684139892427001</v>
       </c>
-      <c r="AN65" s="40">
-        <v>0.78069004139599996</v>
+      <c r="AN65" s="39">
+        <v>0.68430014670668005</v>
+      </c>
+      <c r="AO65" s="40">
+        <v>0.74933436516510998</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" s="42">
         <v>1.7166104839621901</v>
@@ -9337,14 +9527,17 @@
       <c r="AM66" s="42">
         <v>0.91635373473322002</v>
       </c>
-      <c r="AN66" s="43">
-        <v>0.95956219596782</v>
+      <c r="AN66" s="42">
+        <v>0.89552085061757003</v>
+      </c>
+      <c r="AO66" s="43">
+        <v>0.93758594217526003</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" s="39">
         <v>2.9494252843081101</v>
@@ -9457,14 +9650,17 @@
       <c r="AM67" s="39">
         <v>2.3060022250679801</v>
       </c>
-      <c r="AN67" s="40">
-        <v>2.36135776832531</v>
+      <c r="AN67" s="39">
+        <v>2.2797546406370599</v>
+      </c>
+      <c r="AO67" s="40">
+        <v>2.33175980637452</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" s="39">
         <v>2.6069135580581602</v>
@@ -9577,14 +9773,17 @@
       <c r="AM68" s="39">
         <v>2.26278989212279</v>
       </c>
-      <c r="AN68" s="40">
-        <v>2.30607178115554</v>
+      <c r="AN68" s="39">
+        <v>2.2413566795177502</v>
+      </c>
+      <c r="AO68" s="40">
+        <v>2.2840299382860301</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="39">
         <v>2.79515580385632</v>
@@ -9697,14 +9896,17 @@
       <c r="AM69" s="39">
         <v>2.52357730174786</v>
       </c>
-      <c r="AN69" s="40">
-        <v>2.5668185010066198</v>
+      <c r="AN69" s="39">
+        <v>2.5033098168190802</v>
+      </c>
+      <c r="AO69" s="40">
+        <v>2.5419052115769598</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="39">
         <v>2.9487719396262602</v>
@@ -9817,14 +10019,17 @@
       <c r="AM70" s="39">
         <v>2.8112895869002501</v>
       </c>
-      <c r="AN70" s="40">
-        <v>2.87092941686711</v>
+      <c r="AN70" s="39">
+        <v>2.78163145669033</v>
+      </c>
+      <c r="AO70" s="40">
+        <v>2.8403977187348302</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" s="39">
         <v>2.68196264582348</v>
@@ -9937,14 +10142,17 @@
       <c r="AM71" s="39">
         <v>2.53541609402876</v>
       </c>
-      <c r="AN71" s="40">
-        <v>2.5727849527378699</v>
+      <c r="AN71" s="39">
+        <v>2.5161389841558801</v>
+      </c>
+      <c r="AO71" s="40">
+        <v>2.5534356657534301</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" s="39">
         <v>3.1386700567656001</v>
@@ -10057,14 +10265,17 @@
       <c r="AM72" s="39">
         <v>2.3570212504266101</v>
       </c>
-      <c r="AN72" s="40">
-        <v>2.4112733780614901</v>
+      <c r="AN72" s="39">
+        <v>2.3298028706998601</v>
+      </c>
+      <c r="AO72" s="40">
+        <v>2.3825408108484298</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" s="39">
         <v>2.89079377573163</v>
@@ -10177,14 +10388,17 @@
       <c r="AM73" s="39">
         <v>2.5012861964933002</v>
       </c>
-      <c r="AN73" s="40">
-        <v>2.53883882400241</v>
+      <c r="AN73" s="39">
+        <v>2.48190914985731</v>
+      </c>
+      <c r="AO73" s="40">
+        <v>2.51948506556672</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C74" s="39">
         <v>2.2668385990013</v>
@@ -10297,14 +10511,17 @@
       <c r="AM74" s="39">
         <v>1.18966785310248</v>
       </c>
-      <c r="AN74" s="40">
-        <v>1.29087945258755</v>
+      <c r="AN74" s="39">
+        <v>1.14194677979647</v>
+      </c>
+      <c r="AO74" s="40">
+        <v>1.23877548344857</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C75" s="42">
         <v>2.3732164817720198</v>
@@ -10417,14 +10634,17 @@
       <c r="AM75" s="42">
         <v>2.9333614505715002</v>
       </c>
-      <c r="AN75" s="43">
-        <v>2.97595199585425</v>
+      <c r="AN75" s="42">
+        <v>2.9110061811285202</v>
+      </c>
+      <c r="AO75" s="43">
+        <v>2.95403925667503</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C76" s="39">
         <v>1.97052142910079</v>
@@ -10537,14 +10757,17 @@
       <c r="AM76" s="39">
         <v>0.82877013960657997</v>
       </c>
-      <c r="AN76" s="40">
-        <v>0.88551854117420004</v>
+      <c r="AN76" s="39">
+        <v>0.80063012502224995</v>
+      </c>
+      <c r="AO76" s="40">
+        <v>0.85722840088608998</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C77" s="39">
         <v>1.88055058328276</v>
@@ -10657,14 +10880,17 @@
       <c r="AM77" s="39">
         <v>0.68764577219737999</v>
       </c>
-      <c r="AN77" s="40">
-        <v>0.73990280458659996</v>
+      <c r="AN77" s="39">
+        <v>0.66061802907821998</v>
+      </c>
+      <c r="AO77" s="40">
+        <v>0.71410119941322003</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" s="39">
         <v>0.28907911706758999</v>
@@ -10777,14 +11003,17 @@
       <c r="AM78" s="39">
         <v>-8.8738990357999994E-2</v>
       </c>
-      <c r="AN78" s="40">
-        <v>-6.7927569766899995E-2</v>
+      <c r="AN78" s="39">
+        <v>-9.5099954084900004E-2</v>
+      </c>
+      <c r="AO78" s="40">
+        <v>-8.1267927867999995E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C79" s="42">
         <v>0.81292711586722</v>
@@ -10897,14 +11126,17 @@
       <c r="AM79" s="42">
         <v>0.28761645957280002</v>
       </c>
-      <c r="AN79" s="43">
-        <v>0.30468384705850998</v>
+      <c r="AN79" s="42">
+        <v>0.28522080988065002</v>
+      </c>
+      <c r="AO79" s="43">
+        <v>0.29190069012870001</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C80" s="39">
         <v>2.70383884291443</v>
@@ -11017,14 +11249,17 @@
       <c r="AM80" s="39">
         <v>2.3707241922195998</v>
       </c>
-      <c r="AN80" s="40">
-        <v>2.4204856815606401</v>
+      <c r="AN80" s="39">
+        <v>2.3472699011946698</v>
+      </c>
+      <c r="AO80" s="40">
+        <v>2.3947105275930598</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C81" s="39">
         <v>1.64188827898339</v>
@@ -11137,14 +11372,17 @@
       <c r="AM81" s="39">
         <v>0.88301304313555995</v>
       </c>
-      <c r="AN81" s="40">
-        <v>0.97630922537347997</v>
+      <c r="AN81" s="39">
+        <v>0.83497620363293001</v>
+      </c>
+      <c r="AO81" s="40">
+        <v>0.93538388172164999</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C82" s="39">
         <v>2.7573862976283801</v>
@@ -11257,14 +11495,17 @@
       <c r="AM82" s="39">
         <v>2.3041170213354398</v>
       </c>
-      <c r="AN82" s="40">
-        <v>2.3518391787361801</v>
+      <c r="AN82" s="39">
+        <v>2.2804650646689901</v>
+      </c>
+      <c r="AO82" s="40">
+        <v>2.32707812383663</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C83" s="42">
         <v>1.5745149659797599</v>
@@ -11377,14 +11618,17 @@
       <c r="AM83" s="42">
         <v>0.57389598928241004</v>
       </c>
-      <c r="AN83" s="43">
-        <v>0.623418407525</v>
+      <c r="AN83" s="42">
+        <v>0.55000946523470995</v>
+      </c>
+      <c r="AO83" s="43">
+        <v>0.59791153770208005</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C84" s="39">
         <v>2.7946047459596501</v>
@@ -11497,14 +11741,17 @@
       <c r="AM84" s="39">
         <v>2.6392353590881901</v>
       </c>
-      <c r="AN84" s="40">
-        <v>2.69143110828887</v>
+      <c r="AN84" s="39">
+        <v>2.61226543555351</v>
+      </c>
+      <c r="AO84" s="40">
+        <v>2.6641184578897001</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C85" s="39">
         <v>3.1365831696269901</v>
@@ -11617,14 +11864,17 @@
       <c r="AM85" s="39">
         <v>2.08927618239181</v>
       </c>
-      <c r="AN85" s="40">
-        <v>2.3585021962385002</v>
+      <c r="AN85" s="39">
+        <v>1.9203717405816001</v>
+      </c>
+      <c r="AO85" s="40">
+        <v>2.2575188893972</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C86" s="39">
         <v>2.7488863972137301</v>
@@ -11737,14 +11987,17 @@
       <c r="AM86" s="39">
         <v>2.1867845892603599</v>
       </c>
-      <c r="AN86" s="40">
-        <v>2.23433870999175</v>
+      <c r="AN86" s="39">
+        <v>2.1643711310381599</v>
+      </c>
+      <c r="AO86" s="40">
+        <v>2.2099886762729799</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87" s="39">
         <v>2.11958284323712</v>
@@ -11857,14 +12110,17 @@
       <c r="AM87" s="39">
         <v>0.93759236416048997</v>
       </c>
-      <c r="AN87" s="40">
-        <v>0.99578034812071003</v>
+      <c r="AN87" s="39">
+        <v>0.90793965440654001</v>
+      </c>
+      <c r="AO87" s="40">
+        <v>0.96683221069267</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="39">
         <v>2.46539272099742</v>
@@ -11977,14 +12233,17 @@
       <c r="AM88" s="39">
         <v>1.1331701320398799</v>
       </c>
-      <c r="AN88" s="40">
-        <v>1.2027141765815501</v>
+      <c r="AN88" s="39">
+        <v>1.1010421296131301</v>
+      </c>
+      <c r="AO88" s="40">
+        <v>1.16637112162767</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C89" s="39">
         <v>1.51776652481452</v>
@@ -12097,14 +12356,17 @@
       <c r="AM89" s="39">
         <v>0.30634717113922</v>
       </c>
-      <c r="AN89" s="40">
-        <v>0.36075077100446001</v>
+      <c r="AN89" s="39">
+        <v>0.28319375673649</v>
+      </c>
+      <c r="AO89" s="40">
+        <v>0.33093582730651999</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C90" s="42">
         <v>0.68591256154891</v>
@@ -12217,14 +12479,17 @@
       <c r="AM90" s="42">
         <v>0.24039501704739999</v>
       </c>
-      <c r="AN90" s="43">
-        <v>0.26375570406587001</v>
+      <c r="AN90" s="42">
+        <v>0.23321072465072001</v>
+      </c>
+      <c r="AO90" s="43">
+        <v>0.24975693168127999</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C91" s="39">
         <v>2.8718783237353702</v>
@@ -12337,14 +12602,17 @@
       <c r="AM91" s="39">
         <v>2.6744813174521198</v>
       </c>
-      <c r="AN91" s="40">
-        <v>2.7236931101966002</v>
+      <c r="AN91" s="39">
+        <v>2.6491034760986398</v>
+      </c>
+      <c r="AO91" s="40">
+        <v>2.6979799437543099</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C92" s="39">
         <v>2.5391067461029602</v>
@@ -12457,14 +12725,17 @@
       <c r="AM92" s="39">
         <v>1.1382600304350201</v>
       </c>
-      <c r="AN92" s="40">
-        <v>1.22345365292056</v>
+      <c r="AN92" s="39">
+        <v>1.0920181087460401</v>
+      </c>
+      <c r="AO92" s="40">
+        <v>1.18333338707366</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C93" s="39">
         <v>1.84739903181355</v>
@@ -12577,14 +12848,17 @@
       <c r="AM93" s="39">
         <v>1.4832010678184699</v>
       </c>
-      <c r="AN93" s="40">
-        <v>1.51760037676378</v>
+      <c r="AN93" s="39">
+        <v>1.4666543288034399</v>
+      </c>
+      <c r="AO93" s="40">
+        <v>1.49983716266724</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C94" s="39">
         <v>1.6125680503981299</v>
@@ -12697,14 +12971,17 @@
       <c r="AM94" s="39">
         <v>0.83899473986761997</v>
       </c>
-      <c r="AN94" s="40">
-        <v>0.87876877271775</v>
+      <c r="AN94" s="39">
+        <v>0.82193883401641998</v>
+      </c>
+      <c r="AO94" s="40">
+        <v>0.85642813908611004</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C95" s="39">
         <v>2.8539626077896698</v>
@@ -12817,14 +13094,17 @@
       <c r="AM95" s="39">
         <v>2.5653020929577601</v>
       </c>
-      <c r="AN95" s="40">
-        <v>2.6104656361654901</v>
+      <c r="AN95" s="39">
+        <v>2.54231193729786</v>
+      </c>
+      <c r="AO95" s="40">
+        <v>2.5859760179969902</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C96" s="42">
         <v>2.0962638317743001</v>
@@ -12937,14 +13217,17 @@
       <c r="AM96" s="42">
         <v>1.29796900797714</v>
       </c>
-      <c r="AN96" s="43">
-        <v>1.4225110249119799</v>
+      <c r="AN96" s="42">
+        <v>1.23491216105447</v>
+      </c>
+      <c r="AO96" s="43">
+        <v>1.3623983808751099</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C97" s="39">
         <v>2.8898432609638198</v>
@@ -13057,14 +13340,17 @@
       <c r="AM97" s="39">
         <v>2.5699065432263302</v>
       </c>
-      <c r="AN97" s="40">
-        <v>2.6131226451774601</v>
+      <c r="AN97" s="39">
+        <v>2.5475788656776901</v>
+      </c>
+      <c r="AO97" s="40">
+        <v>2.590565782184</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C98" s="39">
         <v>2.6425258228622601</v>
@@ -13177,14 +13463,17 @@
       <c r="AM98" s="39">
         <v>1.4517113339362899</v>
       </c>
-      <c r="AN98" s="40">
-        <v>1.5633827226064101</v>
+      <c r="AN98" s="39">
+        <v>1.3862694520821299</v>
+      </c>
+      <c r="AO98" s="40">
+        <v>1.5171167785586599</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C99" s="42">
         <v>3.0774722395306799</v>
@@ -13297,11 +13586,14 @@
       <c r="AM99" s="42">
         <v>2.5680902427399599</v>
       </c>
-      <c r="AN99" s="43">
-        <v>2.7061476061260201</v>
+      <c r="AN99" s="42">
+        <v>2.4877130607867</v>
+      </c>
+      <c r="AO99" s="43">
+        <v>2.6508196312007701</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A100" s="44"/>
       <c r="B100" s="45"/>
       <c r="C100" s="46"/>
@@ -13342,10 +13634,11 @@
       <c r="AL100" s="46"/>
       <c r="AM100" s="46"/>
       <c r="AN100" s="46"/>
+      <c r="AO100" s="46"/>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -13386,10 +13679,11 @@
       <c r="AL101" s="49"/>
       <c r="AM101" s="49"/>
       <c r="AN101" s="49"/>
+      <c r="AO101" s="49"/>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -13430,10 +13724,11 @@
       <c r="AL102" s="49"/>
       <c r="AM102" s="49"/>
       <c r="AN102" s="49"/>
+      <c r="AO102" s="49"/>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -13474,10 +13769,11 @@
       <c r="AL103" s="49"/>
       <c r="AM103" s="49"/>
       <c r="AN103" s="49"/>
+      <c r="AO103" s="49"/>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -13518,10 +13814,11 @@
       <c r="AL104" s="49"/>
       <c r="AM104" s="49"/>
       <c r="AN104" s="49"/>
+      <c r="AO104" s="49"/>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -13562,8 +13859,9 @@
       <c r="AL105" s="49"/>
       <c r="AM105" s="49"/>
       <c r="AN105" s="49"/>
+      <c r="AO105" s="49"/>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B106" s="48"/>
       <c r="C106" s="49"/>
       <c r="D106" s="49"/>
@@ -13603,8 +13901,9 @@
       <c r="AL106" s="49"/>
       <c r="AM106" s="49"/>
       <c r="AN106" s="49"/>
+      <c r="AO106" s="49"/>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B107" s="48"/>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
@@ -13644,10 +13943,11 @@
       <c r="AL107" s="49"/>
       <c r="AM107" s="49"/>
       <c r="AN107" s="49"/>
+      <c r="AO107" s="49"/>
     </row>
-    <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -13687,8 +13987,9 @@
       <c r="AL108" s="49"/>
       <c r="AM108" s="49"/>
       <c r="AN108" s="49"/>
+      <c r="AO108" s="49"/>
     </row>
-    <row r="109" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B109" s="50"/>
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
@@ -13728,10 +14029,11 @@
       <c r="AL109" s="49"/>
       <c r="AM109" s="49"/>
       <c r="AN109" s="49"/>
+      <c r="AO109" s="49"/>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -13771,10 +14073,11 @@
       <c r="AL110" s="49"/>
       <c r="AM110" s="49"/>
       <c r="AN110" s="49"/>
+      <c r="AO110" s="49"/>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -13814,8 +14117,9 @@
       <c r="AL111" s="49"/>
       <c r="AM111" s="49"/>
       <c r="AN111" s="49"/>
+      <c r="AO111" s="49"/>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
@@ -13855,10 +14159,11 @@
       <c r="AL112" s="49"/>
       <c r="AM112" s="49"/>
       <c r="AN112" s="49"/>
+      <c r="AO112" s="49"/>
     </row>
-    <row r="113" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -13898,10 +14203,11 @@
       <c r="AL113" s="49"/>
       <c r="AM113" s="49"/>
       <c r="AN113" s="49"/>
+      <c r="AO113" s="49"/>
     </row>
-    <row r="114" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -13941,8 +14247,9 @@
       <c r="AL114" s="49"/>
       <c r="AM114" s="49"/>
       <c r="AN114" s="49"/>
+      <c r="AO114" s="49"/>
     </row>
-    <row r="115" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B115" s="2"/>
       <c r="C115" s="49"/>
       <c r="D115" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
+  <si>
+    <t>Tableau 3 : Taux de croissance annuel de la population, 1990-2027</t>
+  </si>
   <si>
     <t>ISO3 Code</t>
   </si>
@@ -604,7 +607,7 @@
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -1379,8 +1382,8 @@
     <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="e">
-        <v>#N/A</v>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1423,118 +1426,118 @@
     </row>
     <row r="2" spans="1:41" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE2" s="8">
         <v>2018</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM2" s="8">
         <v>2026</v>
@@ -1543,15 +1546,15 @@
         <v>2027</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="12">
         <v>3.4361276476274001</v>
@@ -1673,10 +1676,10 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="15">
         <v>3.3967491747583902</v>
@@ -1798,10 +1801,10 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="19">
         <v>2.9962504602391</v>
@@ -1923,10 +1926,10 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="19">
         <v>2.2317174737963801</v>
@@ -2048,10 +2051,10 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="19">
         <v>3.6243571752203398</v>
@@ -2173,10 +2176,10 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="19">
         <v>1.41607612086567</v>
@@ -2298,10 +2301,10 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="19">
         <v>3.3829457341969098</v>
@@ -2423,10 +2426,10 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="19">
         <v>2.4226263382389299</v>
@@ -2548,10 +2551,10 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15">
         <v>2.77038985836551</v>
@@ -2673,10 +2676,10 @@
     </row>
     <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="22">
         <v>2.74336281442746</v>
@@ -2798,10 +2801,10 @@
     </row>
     <row r="13" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="26">
         <v>2.6206581301158498</v>
@@ -2923,10 +2926,10 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="19">
         <v>2.4851759040630301</v>
@@ -3048,10 +3051,10 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="19">
         <v>3.1006912684591801</v>
@@ -3173,10 +3176,10 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="19">
         <v>2.2218094608547299</v>
@@ -3298,10 +3301,10 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="12">
         <v>3.27887591293972</v>
@@ -3423,10 +3426,10 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="12">
         <v>2.7725484604002899</v>
@@ -3548,10 +3551,10 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="15">
         <v>3.4282503744908799</v>
@@ -3673,10 +3676,10 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="12">
         <v>3.0908464905808901</v>
@@ -3798,10 +3801,10 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="12">
         <v>2.79079888363714</v>
@@ -3923,10 +3926,10 @@
     </row>
     <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="19">
         <v>2.4915529648448498</v>
@@ -4048,10 +4051,10 @@
     </row>
     <row r="23" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="26">
         <v>3.1839030159509698</v>
@@ -4173,10 +4176,10 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="19">
         <v>2.9927084011030201</v>
@@ -4298,10 +4301,10 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="19">
         <v>4.7065291608658297</v>
@@ -4423,10 +4426,10 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="19">
         <v>1.2327756523111</v>
@@ -4548,10 +4551,10 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="19">
         <v>3.4914100243281601</v>
@@ -4673,10 +4676,10 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="19">
         <v>3.4422627896609801</v>
@@ -4798,10 +4801,10 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="19">
         <v>2.9284245419572299</v>
@@ -4923,10 +4926,10 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="19">
         <v>0.98356422481193995</v>
@@ -5048,10 +5051,10 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="19">
         <v>0.16352930878085001</v>
@@ -5173,10 +5176,10 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="19">
         <v>0.68912382827548002</v>
@@ -5298,10 +5301,10 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="19">
         <v>1.2872930663008</v>
@@ -5423,10 +5426,10 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C34" s="15">
         <v>-0.34403915246110001</v>
@@ -5548,10 +5551,10 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="19">
         <v>3.4448372623366201</v>
@@ -5673,10 +5676,10 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" s="19">
         <v>3.2447661256811702</v>
@@ -5798,10 +5801,10 @@
     </row>
     <row r="37" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" s="19">
         <v>3.5277250708865902</v>
@@ -5923,10 +5926,10 @@
     </row>
     <row r="38" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="26">
         <v>2.9940603518297602</v>
@@ -6048,10 +6051,10 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" s="12">
         <v>2.5996774022918299</v>
@@ -6173,10 +6176,10 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" s="19">
         <v>2.4563431716186699</v>
@@ -6298,10 +6301,10 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" s="12">
         <v>2.4885566542348001</v>
@@ -6423,10 +6426,10 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" s="12">
         <v>2.6461954223771</v>
@@ -6548,10 +6551,10 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" s="19">
         <v>1.8551649508138199</v>
@@ -6673,10 +6676,10 @@
     </row>
     <row r="44" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" s="19">
         <v>2.2617025782575699</v>
@@ -6798,10 +6801,10 @@
     </row>
     <row r="45" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" s="26">
         <v>2.3543665895969101</v>
@@ -6923,10 +6926,10 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" s="19">
         <v>3.2877249471993801</v>
@@ -7048,10 +7051,10 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C47" s="19">
         <v>2.6948706837371299</v>
@@ -7173,10 +7176,10 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C48" s="19">
         <v>2.0451114197717102</v>
@@ -7298,10 +7301,10 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" s="19">
         <v>3.6724340451553998</v>
@@ -7423,10 +7426,10 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" s="19">
         <v>4.3646403409233701</v>
@@ -7548,10 +7551,10 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51" s="15">
         <v>2.9251935898990902</v>
@@ -7673,10 +7676,10 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" s="19">
         <v>2.9963939891171298</v>
@@ -7798,10 +7801,10 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C53" s="19">
         <v>2.2524014921648798</v>
@@ -7923,10 +7926,10 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C54" s="19">
         <v>-1.4485178470293001</v>
@@ -8048,10 +8051,10 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" s="19">
         <v>1.84400980653181</v>
@@ -8173,10 +8176,10 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56" s="19">
         <v>3.1663539514580599</v>
@@ -8298,10 +8301,10 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" s="12">
         <v>2.6128529346330902</v>
@@ -8423,10 +8426,10 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C58" s="19">
         <v>3.0505191270335601</v>
@@ -8548,10 +8551,10 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C59" s="19">
         <v>1.5355509099447699</v>
@@ -8673,10 +8676,10 @@
     </row>
     <row r="60" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" s="15">
         <v>2.6027254634753101</v>
@@ -8799,7 +8802,7 @@
     <row r="61" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" s="26">
         <v>2.68196264582348</v>
@@ -8922,7 +8925,7 @@
     <row r="62" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" s="32">
         <v>2.7447069476606898</v>
@@ -9045,16 +9048,16 @@
     <row r="63" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" s="32">
         <v>1.5793939934362999</v>
       </c>
       <c r="D63" s="32">
-        <v>1.49329737858901</v>
+        <v>1.49329737858899</v>
       </c>
       <c r="E63" s="32">
-        <v>1.41670162532142</v>
+        <v>1.41670162532144</v>
       </c>
       <c r="F63" s="32">
         <v>1.35249082717699</v>
@@ -9168,7 +9171,7 @@
     <row r="64" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C64" s="36">
         <v>1.8779309926958201</v>
@@ -9291,7 +9294,7 @@
     <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C65" s="39">
         <v>1.9622806850622601</v>
@@ -9414,7 +9417,7 @@
     <row r="66" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" s="42">
         <v>1.7166104839621901</v>
@@ -9537,7 +9540,7 @@
     <row r="67" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C67" s="39">
         <v>2.9494252843081101</v>
@@ -9660,7 +9663,7 @@
     <row r="68" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C68" s="39">
         <v>2.6069135580581602</v>
@@ -9783,7 +9786,7 @@
     <row r="69" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C69" s="39">
         <v>2.79515580385632</v>
@@ -9906,7 +9909,7 @@
     <row r="70" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C70" s="39">
         <v>2.9487719396262602</v>
@@ -10029,7 +10032,7 @@
     <row r="71" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C71" s="39">
         <v>2.68196264582348</v>
@@ -10152,7 +10155,7 @@
     <row r="72" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C72" s="39">
         <v>3.1386700567656001</v>
@@ -10275,7 +10278,7 @@
     <row r="73" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C73" s="39">
         <v>2.89079377573163</v>
@@ -10398,7 +10401,7 @@
     <row r="74" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" s="39">
         <v>2.2668385990013</v>
@@ -10521,7 +10524,7 @@
     <row r="75" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C75" s="42">
         <v>2.3732164817720198</v>
@@ -10644,7 +10647,7 @@
     <row r="76" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C76" s="39">
         <v>1.97052142910079</v>
@@ -10767,7 +10770,7 @@
     <row r="77" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C77" s="39">
         <v>1.88055058328276</v>
@@ -10890,7 +10893,7 @@
     <row r="78" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C78" s="39">
         <v>0.28907911706758999</v>
@@ -11013,7 +11016,7 @@
     <row r="79" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C79" s="42">
         <v>0.81292711586722</v>
@@ -11136,7 +11139,7 @@
     <row r="80" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C80" s="39">
         <v>2.70383884291443</v>
@@ -11259,7 +11262,7 @@
     <row r="81" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C81" s="39">
         <v>1.64188827898339</v>
@@ -11382,7 +11385,7 @@
     <row r="82" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C82" s="39">
         <v>2.7573862976283801</v>
@@ -11505,10 +11508,10 @@
     <row r="83" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C83" s="42">
-        <v>1.5745149659797599</v>
+        <v>1.57451496597973</v>
       </c>
       <c r="D83" s="42">
         <v>1.4944354485195299</v>
@@ -11628,7 +11631,7 @@
     <row r="84" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C84" s="39">
         <v>2.7946047459596501</v>
@@ -11751,7 +11754,7 @@
     <row r="85" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C85" s="39">
         <v>3.1365831696269901</v>
@@ -11874,7 +11877,7 @@
     <row r="86" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C86" s="39">
         <v>2.7488863972137301</v>
@@ -11997,7 +12000,7 @@
     <row r="87" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" s="39">
         <v>2.11958284323712</v>
@@ -12120,7 +12123,7 @@
     <row r="88" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" s="39">
         <v>2.46539272099742</v>
@@ -12243,7 +12246,7 @@
     <row r="89" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C89" s="39">
         <v>1.51776652481452</v>
@@ -12309,19 +12312,19 @@
         <v>0.71402970167900004</v>
       </c>
       <c r="X89" s="39">
-        <v>0.73433419872104</v>
+        <v>0.73433419872100003</v>
       </c>
       <c r="Y89" s="39">
-        <v>0.74914445378497996</v>
+        <v>0.74914445378502004</v>
       </c>
       <c r="Z89" s="39">
         <v>0.75402055348751995</v>
       </c>
       <c r="AA89" s="39">
-        <v>0.74523883644899003</v>
+        <v>0.74523883644897004</v>
       </c>
       <c r="AB89" s="39">
-        <v>0.72527795082825997</v>
+        <v>0.72527795082827995</v>
       </c>
       <c r="AC89" s="39">
         <v>0.70365740266240995</v>
@@ -12366,7 +12369,7 @@
     <row r="90" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C90" s="42">
         <v>0.68591256154891</v>
@@ -12489,7 +12492,7 @@
     <row r="91" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C91" s="39">
         <v>2.8718783237353702</v>
@@ -12612,7 +12615,7 @@
     <row r="92" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C92" s="39">
         <v>2.5391067461029602</v>
@@ -12735,7 +12738,7 @@
     <row r="93" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C93" s="39">
         <v>1.84739903181355</v>
@@ -12858,7 +12861,7 @@
     <row r="94" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C94" s="39">
         <v>1.6125680503981299</v>
@@ -12981,7 +12984,7 @@
     <row r="95" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C95" s="39">
         <v>2.8539626077896698</v>
@@ -13104,7 +13107,7 @@
     <row r="96" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C96" s="42">
         <v>2.0962638317743001</v>
@@ -13227,7 +13230,7 @@
     <row r="97" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C97" s="39">
         <v>2.8898432609638198</v>
@@ -13350,7 +13353,7 @@
     <row r="98" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C98" s="39">
         <v>2.6425258228622601</v>
@@ -13473,7 +13476,7 @@
     <row r="99" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C99" s="42">
         <v>3.0774722395306799</v>
@@ -13638,7 +13641,7 @@
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -13683,7 +13686,7 @@
     </row>
     <row r="102" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -13728,7 +13731,7 @@
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -13773,7 +13776,7 @@
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -13818,7 +13821,7 @@
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -13947,7 +13950,7 @@
     </row>
     <row r="108" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -14033,7 +14036,7 @@
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -14077,7 +14080,7 @@
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -14163,7 +14166,7 @@
     </row>
     <row r="113" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -14207,7 +14210,7 @@
     </row>
     <row r="114" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -14292,7 +14295,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
